--- a/data/trans_camb/CoTrAQ_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R2-Provincia-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.248049900898739</v>
+        <v>3.207524220972347</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.794008370484321</v>
+        <v>-7.51445168748134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.139804561987148</v>
+        <v>2.601347929119894</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.37815937601741</v>
+        <v>27.17132336206325</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.03778822597584</v>
+        <v>18.45068947993241</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.69953746148508</v>
+        <v>20.24426348455693</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1131092247276498</v>
+        <v>0.1001837255377885</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2325296058377095</v>
+        <v>-0.2505372670584265</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.06801593331579807</v>
+        <v>0.09376157545817654</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.598593188382899</v>
+        <v>1.623431975277913</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.225426011313206</v>
+        <v>1.150582016330813</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.088944886105678</v>
+        <v>1.115956601120099</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.378949815662345</v>
+        <v>3.30076442304662</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.52897583770979</v>
+        <v>3.044663777137131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.805603854622884</v>
+        <v>5.797102251002277</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.52991347558107</v>
+        <v>19.24079807602779</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>23.3224820302808</v>
+        <v>23.33142800640237</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.79704932639798</v>
+        <v>18.7331692333105</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2611400619406994</v>
+        <v>0.2213091761531027</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1224823095733066</v>
+        <v>0.1357518509123225</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3701020258340004</v>
+        <v>0.3839051969732687</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.487405901822547</v>
+        <v>2.437151134519869</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.961197112637137</v>
+        <v>2.792169980270288</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.961578647570126</v>
+        <v>1.957744044900765</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.102347844135231</v>
+        <v>4.046881915900325</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.783447097295514</v>
+        <v>-4.861659788847004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.865839900571193</v>
+        <v>4.25613216668493</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.52578538439168</v>
+        <v>23.2485984873924</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.45490416229975</v>
+        <v>21.02992002087579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.79888034935409</v>
+        <v>18.9758524016286</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1835373925932677</v>
+        <v>0.1837934528787496</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2072320848736733</v>
+        <v>-0.2576684159564809</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3141512502505582</v>
+        <v>0.2143143239405635</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.821190957055534</v>
+        <v>2.895249211118235</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.655953274863584</v>
+        <v>2.15090099180824</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.963701709130693</v>
+        <v>1.988860634463982</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.462314463012356</v>
+        <v>-3.242949282879368</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.230220259916663</v>
+        <v>-4.950705664508233</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.157231734524132</v>
+        <v>-1.260722300636661</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.30608471659512</v>
+        <v>15.18135576115637</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.56850458265149</v>
+        <v>18.83845528549898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.38695659849189</v>
+        <v>13.61418186639905</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2477102553701842</v>
+        <v>-0.2613623991974667</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.26649101943662</v>
+        <v>-0.2727353637165113</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08717540412335591</v>
+        <v>-0.0834710778221959</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.391135184723957</v>
+        <v>2.582317394991275</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.959093926876039</v>
+        <v>1.864541437626885</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.489739366303729</v>
+        <v>1.479239976935449</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-19.61855535144107</v>
+        <v>-18.95914268535165</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-32.39720035425765</v>
+        <v>-33.24139367751952</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-20.98695166324812</v>
+        <v>-20.32247514813014</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.550170748701156</v>
+        <v>7.329420424078648</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.182713020084445</v>
+        <v>3.029390528017445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1413025834186737</v>
+        <v>-0.08206073776259301</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6795222872950185</v>
+        <v>-0.6682573506490176</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6953833110693762</v>
+        <v>-0.6948132366192324</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6116062338618752</v>
+        <v>-0.5930278879805082</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.471443720432059</v>
+        <v>0.545668816887704</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1465737386790635</v>
+        <v>0.1208803546563032</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01533792948362815</v>
+        <v>0.01035187872774643</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>8.504279003847691</v>
+        <v>8.489030819805631</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>6.496815135824789</v>
+        <v>5.180115674509771</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11.43132801304916</v>
+        <v>11.28678157144611</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>27.15293247441484</v>
+        <v>27.85054397954701</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>32.4455113782286</v>
+        <v>32.2805762133402</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>26.56549648528412</v>
+        <v>26.52953856021454</v>
       </c>
     </row>
     <row r="37">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.57520340445507</v>
+        <v>0.7043796027074049</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.3267935724054035</v>
+        <v>0.1896344289480722</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.9863476183195774</v>
+        <v>0.9864146482090533</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7.703176764205611</v>
+        <v>7.880665214939349</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>8.744644709272819</v>
+        <v>7.421706245308092</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5.25286549390597</v>
+        <v>5.660470717072671</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>18.13593874423952</v>
+        <v>18.04801034887743</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>20.14920157731973</v>
+        <v>19.39193064424593</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20.75938939474852</v>
+        <v>21.52821417970578</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>32.21150781289913</v>
+        <v>32.28748454820726</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>36.89639748288764</v>
+        <v>36.73598194296845</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>31.8458930620488</v>
+        <v>32.65153215487693</v>
       </c>
     </row>
     <row r="43">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.9517361170320319</v>
+        <v>1.033198827194819</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.8655936070811264</v>
+        <v>0.7946138139603509</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.113692713746147</v>
+        <v>1.086141003181561</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.898285212067241</v>
+        <v>2.997011420913374</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.007327009735441</v>
+        <v>2.88857889080977</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.459593746120197</v>
+        <v>2.530869764459744</v>
       </c>
     </row>
     <row r="46">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-9.902417901803144</v>
+        <v>-9.25267976001857</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.500451883824952</v>
+        <v>-6.011431500752919</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-6.899596614340998</v>
+        <v>-6.635878158563672</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.4141921985725626</v>
+        <v>-0.002741652285834071</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.669871502339567</v>
+        <v>7.156065862166447</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.9700109029976166</v>
+        <v>1.49921928381546</v>
       </c>
     </row>
     <row r="49">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6397379405553997</v>
+        <v>-0.6424481013949439</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3422299705643076</v>
+        <v>-0.3369102823323415</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4422687504720233</v>
+        <v>-0.4317367077155988</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.02362767662010165</v>
+        <v>0.003186792355282905</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5909735502445743</v>
+        <v>0.6564032771653772</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.09887557907842516</v>
+        <v>0.1410628355921732</v>
       </c>
     </row>
     <row r="52">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>7.915251602248803</v>
+        <v>7.683050980165705</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>8.026861623366109</v>
+        <v>7.78138798489357</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>8.868844404824374</v>
+        <v>9.268507103027888</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>14.10549117695863</v>
+        <v>13.8580813288632</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>15.9047547219738</v>
+        <v>15.6206305499603</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>13.92540152392031</v>
+        <v>14.03471002900525</v>
       </c>
     </row>
     <row r="55">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.5473338494392006</v>
+        <v>0.5059835671267424</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.4278655457596545</v>
+        <v>0.4066640551690561</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.5493681057105346</v>
+        <v>0.5790090161407263</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.187255290312587</v>
+        <v>1.145568440621801</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.078893959146785</v>
+        <v>1.03198705221629</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.027749974657057</v>
+        <v>1.028667151675808</v>
       </c>
     </row>
     <row r="58">
